--- a/Libraries/Vehicle/Tire/Delft/sm_car_data_Tire_Delft.xlsx
+++ b/Libraries/Vehicle/Tire/Delft/sm_car_data_Tire_Delft.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\Delft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A92A89-975E-48B7-ACBE-A38825540D44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E66743A-AFD8-478E-8504-DA04C8FD9C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1590" windowWidth="16965" windowHeight="11865" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="1812" yWindow="1836" windowWidth="20424" windowHeight="10212" activeTab="4" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
     <sheet name="Tir_213_40R21" sheetId="4" r:id="rId2"/>
     <sheet name="Tir_270_70R22" sheetId="5" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="6" r:id="rId4"/>
+    <sheet name="Tir_430_50R38" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
   <si>
     <t>Units</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>which('car235_50R24.tir')</t>
+  </si>
+  <si>
+    <t>Delft_430_50R38</t>
+  </si>
+  <si>
+    <t>which('Truck_430_50R38.tir')</t>
   </si>
 </sst>
 </file>
@@ -237,7 +244,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -637,22 +665,22 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -672,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -703,7 +731,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -733,7 +761,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -764,7 +792,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -794,7 +822,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -828,7 +856,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -857,7 +885,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -886,7 +914,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -914,7 +942,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -938,93 +966,93 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -1046,7 +1074,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -1070,17 +1098,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1102,18 +1130,18 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1133,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1192,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1222,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1253,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1282,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1316,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1345,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1374,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1402,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1398,93 +1426,93 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -1506,7 +1534,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -1530,17 +1558,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1562,18 +1590,18 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1593,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1652,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1682,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1685,7 +1713,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1742,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1748,7 +1776,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1777,7 +1805,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1806,7 +1834,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1862,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1858,93 +1886,93 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -1966,7 +1994,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -1990,17 +2018,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2022,18 +2050,18 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2053,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2112,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +2142,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2173,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2202,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2208,7 +2236,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2237,7 +2265,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2294,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +2322,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2318,93 +2346,93 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="C21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="C22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -2426,7 +2454,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
@@ -2450,6 +2478,466 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9358FE7A-92AB-4435-90CA-8ACBE049900F}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/Delft/sm_car_data_Tire_Delft.xlsx
+++ b/Libraries/Vehicle/Tire/Delft/sm_car_data_Tire_Delft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\Delft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Tire\Delft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E66743A-AFD8-478E-8504-DA04C8FD9C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71B7BC-99CB-41F5-B517-C83D384AA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1836" windowWidth="20424" windowHeight="10212" activeTab="4" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="5775" yWindow="2265" windowWidth="21600" windowHeight="12675" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="34">
   <si>
     <t>Units</t>
   </si>
@@ -70,9 +70,6 @@
     <t>which('235-50R24_8jR24_280_kPa.tir')</t>
   </si>
   <si>
-    <t>Inertia</t>
-  </si>
-  <si>
     <t>roadFile</t>
   </si>
   <si>
@@ -131,6 +128,15 @@
   </si>
   <si>
     <t>which('Truck_430_50R38.tir')</t>
+  </si>
+  <si>
+    <t>mjRim</t>
+  </si>
+  <si>
+    <t>kg, kg*m^2</t>
+  </si>
+  <si>
+    <t>Rim [Mass, Ixx, Iyy]</t>
   </si>
 </sst>
 </file>
@@ -223,8 +229,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -240,11 +244,48 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -665,22 +706,22 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -700,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -709,8 +750,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
+      <c r="H2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -731,7 +772,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -740,7 +781,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -761,7 +802,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -792,20 +833,20 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="s">
-        <v>29</v>
+      <c r="H5" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="M5"/>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="O5"/>
@@ -822,49 +863,37 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="F6" s="15">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="20" t="s">
-        <v>13</v>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -885,15 +914,15 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="20" t="s">
-        <v>15</v>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -914,27 +943,27 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -942,16 +971,16 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -966,101 +995,101 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1074,15 +1103,15 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1097,18 +1126,23 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C13 A4:A5 A7:A13 C7:D8">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1125,23 +1159,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection activeCell="K22" sqref="K22"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1161,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1170,8 +1205,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
+      <c r="H2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1192,7 +1227,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1236,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1222,7 +1257,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1253,15 +1288,15 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="s">
-        <v>25</v>
+      <c r="H5" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1282,49 +1317,37 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="F6" s="15">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="20" t="s">
-        <v>13</v>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1345,15 +1368,15 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="20" t="s">
-        <v>15</v>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -1374,27 +1397,27 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -1402,16 +1425,16 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1426,101 +1449,101 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1534,15 +1557,15 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1557,18 +1580,23 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C13 A4:A5 A7:A13 C7:D8">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1585,23 +1613,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection activeCell="K22" sqref="K22"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1621,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1630,8 +1659,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
+      <c r="H2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1652,7 +1681,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1661,7 +1690,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1682,7 +1711,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1713,15 +1742,15 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="s">
-        <v>23</v>
+      <c r="H5" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1742,49 +1771,37 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="F6" s="15">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="20" t="s">
-        <v>13</v>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1805,15 +1822,15 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="20" t="s">
-        <v>15</v>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -1834,27 +1851,27 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -1862,16 +1879,16 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1886,101 +1903,101 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1994,15 +2011,15 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2017,18 +2034,23 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C13 A4:A5 A7:A13 C7:D8">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2045,23 +2067,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection activeCell="K22" sqref="K22"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2081,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2090,8 +2113,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
+      <c r="H2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2112,7 +2135,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2144,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2142,7 +2165,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2173,15 +2196,15 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="s">
-        <v>27</v>
+      <c r="H5" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -2202,49 +2225,37 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="F6" s="15">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="20" t="s">
-        <v>13</v>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -2265,15 +2276,15 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="20" t="s">
-        <v>15</v>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -2294,27 +2305,27 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -2322,16 +2333,16 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -2346,101 +2357,101 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2454,15 +2465,15 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2477,18 +2488,23 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C13 A4:A5 A7:A13 C7:D8">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2503,25 +2519,25 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2541,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2550,8 +2566,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
+      <c r="H2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2572,7 +2588,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2597,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2602,7 +2618,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2633,15 +2649,15 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="s">
-        <v>31</v>
+      <c r="H5" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -2662,49 +2678,37 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="F6" s="15">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="20" t="s">
-        <v>13</v>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -2725,15 +2729,15 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="20" t="s">
-        <v>15</v>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -2754,27 +2758,27 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -2782,16 +2786,16 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -2806,101 +2810,101 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2914,15 +2918,15 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2937,18 +2941,23 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D8 C9:C13 A4:A13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="C21:C24 A21:A24 C4:D5 C9:C13 A4:A5 A7:A13 C7:D8">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 A6">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Tire/Delft/sm_car_data_Tire_Delft.xlsx
+++ b/Libraries/Vehicle/Tire/Delft/sm_car_data_Tire_Delft.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Tire\Delft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB76976-A27E-4DD6-A627-DA4F709DFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5F4695-1F19-44E6-B16F-828A769024E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2130" windowWidth="20595" windowHeight="11235" tabRatio="825" activeTab="2" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
+    <workbookView xWindow="7545" yWindow="1215" windowWidth="21555" windowHeight="11295" tabRatio="825" xr2:uid="{038AE485-2DF6-4480-A05B-AFF15F06FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
     <sheet name="Tir_213_40R21" sheetId="4" r:id="rId2"/>
     <sheet name="Tir_214_10R39" sheetId="8" r:id="rId3"/>
-    <sheet name="Tir_270_70R22" sheetId="5" r:id="rId4"/>
-    <sheet name="Tir_145_70R13" sheetId="6" r:id="rId5"/>
-    <sheet name="Tir_430_50R38" sheetId="7" r:id="rId6"/>
+    <sheet name="Tir_235_80R17" sheetId="9" r:id="rId4"/>
+    <sheet name="Tir_270_70R22" sheetId="5" r:id="rId5"/>
+    <sheet name="Tir_145_70R13" sheetId="6" r:id="rId6"/>
+    <sheet name="Tir_430_50R38" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
   <si>
     <t>Units</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>which('Truck_214_10R39.tir')</t>
+  </si>
+  <si>
+    <t>Delft_235_80R17</t>
+  </si>
+  <si>
+    <t>which('car235_80R17.tir')</t>
   </si>
 </sst>
 </file>
@@ -250,7 +257,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -692,8 +720,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,17 +964,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C13 C21:C24">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 A4:A13">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1206,17 +1234,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C13 C21:C24">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 A4:A13">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1231,7 +1259,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K22" sqref="K22"/>
       <selection pane="topRight" activeCell="K22" sqref="K22"/>
@@ -1476,6 +1504,276 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A26">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C13 C21:C24">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D8 A4:A13">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1225735E-6995-4D03-8814-90B35B3A9ECB}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K22" sqref="K22"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A21:A26">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1494,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A16B1-979A-45DF-9817-8992A8D0AF5D}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -1764,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB49D6F-468E-418F-A062-1D81E654217C}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2034,7 +2332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9358FE7A-92AB-4435-90CA-8ACBE049900F}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
